--- a/python/Statistics/Results/RST_classification_ERA_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_ERA_1979-2016.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="s">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="s">
         <v>0</v>
@@ -685,16 +685,16 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="s">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="s">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>2</v>
       </c>
       <c r="AJ5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="s">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" t="s">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="s">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
         <v>0</v>
@@ -1080,40 +1080,40 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>0</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="s">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="s">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="s">
         <v>2</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="s">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="s">
         <v>2</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="s">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="s">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="s">
         <v>2</v>
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="AE17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="s">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="s">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="AE20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="s">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="s">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="s">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="s">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S25" t="s">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="AD25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="s">
         <v>0</v>
@@ -3174,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="Z26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="s">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="s">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" t="s">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="s">
         <v>0</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="31" spans="1:39">
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="V32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32" t="s">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" t="s">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="s">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD34" t="s">
         <v>3</v>
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35" t="s">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" t="s">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AH36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI36" t="s">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ37" t="s">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="s">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
         <v>0</v>
@@ -4617,34 +4617,34 @@
         <v>0</v>
       </c>
       <c r="Y38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="s">
         <v>3</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>0</v>
       </c>
       <c r="AI38" t="s">
         <v>1</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="s">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="s">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="s">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43" t="s">
         <v>2</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>2</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L47" t="s">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="T49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="s">
         <v>2</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="s">
         <v>1</v>
@@ -6220,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S52" t="s">
         <v>0</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="AK52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL52" t="s">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="AD53" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE53" t="s">
         <v>1</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>2</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF55" t="s">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:39">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y58" t="s">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM59" t="s">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="s">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="AM62" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:39">
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S63" t="s">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" t="s">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X64" t="s">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>3</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="67" spans="1:39">
       <c r="B67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="AL68" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM68" t="s">
         <v>1</v>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W69" t="s">
         <v>0</v>
@@ -8147,10 +8147,10 @@
         <v>2</v>
       </c>
       <c r="AE69" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF69" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG69" t="s">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="AM69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:39">
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="AL70" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM70" t="s">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71" t="s">
         <v>3</v>
@@ -8349,7 +8349,7 @@
         <v>2</v>
       </c>
       <c r="U71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V71" t="s">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="AC72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="s">
         <v>2</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="Y73" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z73" t="s">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="AM73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:39">
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="AG74" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH74" t="s">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T76" t="s">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P77" t="s">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="AE77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF77" t="s">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" t="s">
         <v>0</v>
@@ -9140,64 +9140,64 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>2</v>
+      </c>
+      <c r="X78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="s">
         <v>3</v>
-      </c>
-      <c r="O78" t="s">
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>1</v>
-      </c>
-      <c r="R78" t="s">
-        <v>0</v>
-      </c>
-      <c r="S78" t="s">
-        <v>0</v>
-      </c>
-      <c r="T78" t="s">
-        <v>0</v>
-      </c>
-      <c r="U78" t="s">
-        <v>0</v>
-      </c>
-      <c r="V78" t="s">
-        <v>0</v>
-      </c>
-      <c r="W78" t="s">
-        <v>2</v>
-      </c>
-      <c r="X78" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>2</v>
       </c>
       <c r="AH78" t="s">
         <v>1</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S81" t="s">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AF81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG81" t="s">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y82" t="s">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="AD82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE82" t="s">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K83" t="s">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M84" t="s">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="AC85" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD85" t="s">
         <v>0</v>
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="AK85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL85" t="s">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="s">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="AI86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ86" t="s">
         <v>1</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" t="s">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM88" t="s">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="AA89" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB89" t="s">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90" t="s">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T91" t="s">
         <v>2</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U93" t="s">
         <v>2</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="Z95" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA95" t="s">
         <v>0</v>
@@ -11234,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q96" t="s">
         <v>1</v>
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>0</v>
@@ -11353,14 +11353,14 @@
         <v>0</v>
       </c>
       <c r="Q97" t="s">
+        <v>1</v>
+      </c>
+      <c r="R97" t="s">
+        <v>0</v>
+      </c>
+      <c r="S97" t="s">
         <v>3</v>
       </c>
-      <c r="R97" t="s">
-        <v>0</v>
-      </c>
-      <c r="S97" t="s">
-        <v>0</v>
-      </c>
       <c r="T97" t="s">
         <v>0</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="AI97" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ97" t="s">
         <v>0</v>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>0</v>
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O99" t="s">
         <v>0</v>
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M100" t="s">
         <v>0</v>
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="AD104" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE104" t="s">
         <v>0</v>
@@ -12314,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="AB105" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC105" t="s">
         <v>1</v>
@@ -12358,10 +12358,10 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R106" t="s">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V106" t="s">
         <v>0</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L107" t="s">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X109" t="s">
         <v>0</v>
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="AM111" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:39">
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M112" t="s">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="AM112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:39">
@@ -13194,32 +13194,32 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" t="s">
+        <v>0</v>
+      </c>
+      <c r="S113" t="s">
+        <v>0</v>
+      </c>
+      <c r="T113" t="s">
         <v>3</v>
       </c>
-      <c r="M113" t="s">
-        <v>0</v>
-      </c>
-      <c r="N113" t="s">
-        <v>0</v>
-      </c>
-      <c r="O113" t="s">
-        <v>0</v>
-      </c>
-      <c r="P113" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>0</v>
-      </c>
-      <c r="R113" t="s">
-        <v>0</v>
-      </c>
-      <c r="S113" t="s">
-        <v>0</v>
-      </c>
-      <c r="T113" t="s">
-        <v>0</v>
-      </c>
       <c r="U113" t="s">
         <v>0</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="X113" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y113" t="s">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K114" t="s">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="P115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q115" t="s">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="AE115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF115" t="s">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="AK116" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL116" t="s">
         <v>0</v>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="V118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W118" t="s">
         <v>0</v>
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="AE118" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF118" t="s">
         <v>0</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK119" t="s">
         <v>0</v>
@@ -14078,13 +14078,13 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK120" t="s">
         <v>0</v>
       </c>
       <c r="AL120" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM120" t="s">
         <v>0</v>
@@ -14092,7 +14092,7 @@
     </row>
     <row r="121" spans="1:39">
       <c r="B121" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>0</v>
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="P122" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q122" t="s">
         <v>0</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="AB122" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC122" t="s">
         <v>0</v>
@@ -14396,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="Z123" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA123" t="s">
         <v>0</v>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Z124" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA124" t="s">
         <v>0</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="Z126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA126" t="s">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="AC126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD126" t="s">
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129" t="s">
         <v>0</v>
@@ -15077,34 +15077,34 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
+        <v>1</v>
+      </c>
+      <c r="V129" t="s">
+        <v>0</v>
+      </c>
+      <c r="W129" t="s">
+        <v>0</v>
+      </c>
+      <c r="X129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="s">
         <v>3</v>
-      </c>
-      <c r="V129" t="s">
-        <v>0</v>
-      </c>
-      <c r="W129" t="s">
-        <v>0</v>
-      </c>
-      <c r="X129" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>0</v>
       </c>
       <c r="AE129" t="s">
         <v>0</v>
@@ -15154,7 +15154,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130" t="s">
         <v>0</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V130" t="s">
         <v>0</v>
@@ -15208,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="Z130" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA130" t="s">
         <v>0</v>
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="Z131" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA131" t="s">
         <v>0</v>
@@ -15380,38 +15380,38 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>0</v>
+      </c>
+      <c r="P132" t="s">
         <v>3</v>
       </c>
-      <c r="G132" t="s">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" t="s">
-        <v>0</v>
-      </c>
-      <c r="J132" t="s">
-        <v>0</v>
-      </c>
-      <c r="K132" t="s">
-        <v>0</v>
-      </c>
-      <c r="L132" t="s">
-        <v>0</v>
-      </c>
-      <c r="M132" t="s">
-        <v>0</v>
-      </c>
-      <c r="N132" t="s">
-        <v>0</v>
-      </c>
-      <c r="O132" t="s">
-        <v>0</v>
-      </c>
-      <c r="P132" t="s">
-        <v>0</v>
-      </c>
       <c r="Q132" t="s">
         <v>0</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="Y132" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z132" t="s">
         <v>3</v>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="Z133" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA133" t="s">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>0</v>
       </c>
       <c r="AD133" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE133" t="s">
         <v>0</v>
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V134" t="s">
         <v>0</v>
@@ -15975,16 +15975,16 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M137" t="s">
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O137" t="s">
         <v>0</v>
@@ -16032,7 +16032,7 @@
         <v>0</v>
       </c>
       <c r="AD137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE137" t="s">
         <v>0</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
         <v>0</v>
@@ -16276,7 +16276,7 @@
         <v>0</v>
       </c>
       <c r="AH139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI139" t="s">
         <v>0</v>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="AL139" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM139" t="s">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="AF141" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG141" t="s">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="V144" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W144" t="s">
         <v>0</v>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H145" t="s">
         <v>0</v>
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="V145" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W145" t="s">
         <v>0</v>
@@ -17293,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="Y148" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z148" t="s">
         <v>0</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N149" t="s">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="X150" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y150" t="s">
         <v>0</v>
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="AK150" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL150" t="s">
         <v>0</v>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="AB151" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC151" t="s">
         <v>0</v>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="AI151" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ151" t="s">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
         <v>0</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="R152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S152" t="s">
         <v>0</v>
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="AC152" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD152" t="s">
         <v>0</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
         <v>0</v>
@@ -17885,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="AC153" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD153" t="s">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G154" t="s">
         <v>0</v>
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="Y160" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z160" t="s">
         <v>0</v>
@@ -18801,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="Y161" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z161" t="s">
         <v>0</v>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="AJ165" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK165" t="s">
         <v>0</v>
@@ -19423,7 +19423,7 @@
         <v>0</v>
       </c>
       <c r="AM166" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:39">
@@ -19759,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="AI169" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ169" t="s">
         <v>0</v>
@@ -23491,7 +23491,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D202" t="s">
         <v>0</v>
@@ -24732,7 +24732,7 @@
         <v>0</v>
       </c>
       <c r="AD212" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE212" t="s">
         <v>0</v>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="s">
         <v>0</v>
@@ -28604,7 +28604,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G246" t="s">
         <v>0</v>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
       <c r="O246" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P246" t="s">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L251" t="s">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="O251" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P251" t="s">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="U254" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V254" t="s">
         <v>0</v>
@@ -29720,7 +29720,7 @@
         <v>0</v>
       </c>
       <c r="AD255" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE255" t="s">
         <v>0</v>
@@ -30124,7 +30124,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K259" t="s">
         <v>0</v>
@@ -30154,7 +30154,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U259" t="s">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K260" t="s">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="Q262" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R262" t="s">
         <v>0</v>
@@ -30817,7 +30817,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J265" t="s">
         <v>0</v>
@@ -31103,7 +31103,7 @@
         <v>0</v>
       </c>
       <c r="AA267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB267" t="s">
         <v>0</v>
@@ -31466,7 +31466,7 @@
         <v>0</v>
       </c>
       <c r="AF270" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG270" t="s">
         <v>0</v>
@@ -31504,7 +31504,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G271" t="s">
         <v>0</v>
@@ -31635,7 +31635,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L272" t="s">
         <v>0</v>
@@ -31840,7 +31840,7 @@
     </row>
     <row r="274" spans="1:39">
       <c r="B274" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -31909,7 +31909,7 @@
         <v>0</v>
       </c>
       <c r="Y274" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z274" t="s">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>0</v>
       </c>
       <c r="O275" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P275" t="s">
         <v>0</v>
@@ -32025,37 +32025,37 @@
         <v>0</v>
       </c>
       <c r="Y275" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH275" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI275" t="s">
         <v>3</v>
-      </c>
-      <c r="Z275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH275" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI275" t="s">
-        <v>0</v>
       </c>
       <c r="AJ275" t="s">
         <v>0</v>
@@ -32156,7 +32156,7 @@
         <v>0</v>
       </c>
       <c r="AD276" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE276" t="s">
         <v>0</v>
@@ -32183,7 +32183,7 @@
         <v>1</v>
       </c>
       <c r="AM276" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:39">
@@ -32203,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H277" t="s">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="N277" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O277" t="s">
         <v>0</v>
@@ -32254,7 +32254,7 @@
         <v>0</v>
       </c>
       <c r="X277" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y277" t="s">
         <v>0</v>
@@ -32299,7 +32299,7 @@
         <v>0</v>
       </c>
       <c r="AM277" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:39">
@@ -32370,7 +32370,7 @@
         <v>1</v>
       </c>
       <c r="X278" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y278" t="s">
         <v>0</v>
@@ -32397,7 +32397,7 @@
         <v>0</v>
       </c>
       <c r="AG278" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH278" t="s">
         <v>0</v>
@@ -32465,7 +32465,7 @@
         <v>0</v>
       </c>
       <c r="Q279" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R279" t="s">
         <v>0</v>
@@ -32483,7 +32483,7 @@
         <v>0</v>
       </c>
       <c r="W279" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X279" t="s">
         <v>1</v>
@@ -32569,20 +32569,20 @@
         <v>0</v>
       </c>
       <c r="M280" t="s">
+        <v>1</v>
+      </c>
+      <c r="N280" t="s">
+        <v>0</v>
+      </c>
+      <c r="O280" t="s">
+        <v>0</v>
+      </c>
+      <c r="P280" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="s">
         <v>3</v>
       </c>
-      <c r="N280" t="s">
-        <v>0</v>
-      </c>
-      <c r="O280" t="s">
-        <v>0</v>
-      </c>
-      <c r="P280" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>0</v>
-      </c>
       <c r="R280" t="s">
         <v>0</v>
       </c>
@@ -32599,19 +32599,19 @@
         <v>0</v>
       </c>
       <c r="W280" t="s">
+        <v>1</v>
+      </c>
+      <c r="X280" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA280" t="s">
         <v>3</v>
-      </c>
-      <c r="X280" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y280" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z280" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA280" t="s">
-        <v>0</v>
       </c>
       <c r="AB280" t="s">
         <v>0</v>
@@ -32655,7 +32655,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281" t="s">
         <v>0</v>
@@ -32670,7 +32670,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I281" t="s">
         <v>0</v>
@@ -32685,10 +32685,10 @@
         <v>0</v>
       </c>
       <c r="M281" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O281" t="s">
         <v>0</v>
@@ -32715,7 +32715,7 @@
         <v>0</v>
       </c>
       <c r="W281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X281" t="s">
         <v>0</v>
@@ -32724,7 +32724,7 @@
         <v>2</v>
       </c>
       <c r="Z281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA281" t="s">
         <v>0</v>
@@ -32771,7 +32771,7 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D282" t="s">
         <v>0</v>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="X283" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y283" t="s">
         <v>0</v>
@@ -33006,7 +33006,7 @@
         <v>0</v>
       </c>
       <c r="D284" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E284" t="s">
         <v>0</v>
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="AJ284" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK284" t="s">
         <v>0</v>
@@ -33221,7 +33221,7 @@
         <v>1</v>
       </c>
       <c r="AK285" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL285" t="s">
         <v>0</v>
@@ -33247,7 +33247,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>0</v>
@@ -33357,67 +33357,67 @@
         <v>0</v>
       </c>
       <c r="E287" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>2</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1</v>
+      </c>
+      <c r="H287" t="s">
+        <v>0</v>
+      </c>
+      <c r="I287" t="s">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>0</v>
+      </c>
+      <c r="K287" t="s">
+        <v>0</v>
+      </c>
+      <c r="L287" t="s">
+        <v>0</v>
+      </c>
+      <c r="M287" t="s">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
+        <v>0</v>
+      </c>
+      <c r="O287" t="s">
+        <v>1</v>
+      </c>
+      <c r="P287" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>0</v>
+      </c>
+      <c r="R287" t="s">
+        <v>0</v>
+      </c>
+      <c r="S287" t="s">
+        <v>0</v>
+      </c>
+      <c r="T287" t="s">
+        <v>0</v>
+      </c>
+      <c r="U287" t="s">
+        <v>1</v>
+      </c>
+      <c r="V287" t="s">
+        <v>0</v>
+      </c>
+      <c r="W287" t="s">
+        <v>1</v>
+      </c>
+      <c r="X287" t="s">
         <v>3</v>
       </c>
-      <c r="F287" t="s">
-        <v>2</v>
-      </c>
-      <c r="G287" t="s">
-        <v>1</v>
-      </c>
-      <c r="H287" t="s">
-        <v>0</v>
-      </c>
-      <c r="I287" t="s">
-        <v>0</v>
-      </c>
-      <c r="J287" t="s">
-        <v>0</v>
-      </c>
-      <c r="K287" t="s">
-        <v>0</v>
-      </c>
-      <c r="L287" t="s">
-        <v>0</v>
-      </c>
-      <c r="M287" t="s">
-        <v>0</v>
-      </c>
-      <c r="N287" t="s">
-        <v>0</v>
-      </c>
-      <c r="O287" t="s">
-        <v>1</v>
-      </c>
-      <c r="P287" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q287" t="s">
-        <v>0</v>
-      </c>
-      <c r="R287" t="s">
-        <v>0</v>
-      </c>
-      <c r="S287" t="s">
-        <v>0</v>
-      </c>
-      <c r="T287" t="s">
-        <v>0</v>
-      </c>
-      <c r="U287" t="s">
-        <v>1</v>
-      </c>
-      <c r="V287" t="s">
-        <v>0</v>
-      </c>
-      <c r="W287" t="s">
-        <v>2</v>
-      </c>
-      <c r="X287" t="s">
-        <v>0</v>
-      </c>
       <c r="Y287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z287" t="s">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>0</v>
       </c>
       <c r="P288" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q288" t="s">
         <v>1</v>
@@ -33527,7 +33527,7 @@
         <v>1</v>
       </c>
       <c r="W288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X288" t="s">
         <v>0</v>
@@ -33554,7 +33554,7 @@
         <v>0</v>
       </c>
       <c r="AF288" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG288" t="s">
         <v>0</v>
@@ -33563,7 +33563,7 @@
         <v>0</v>
       </c>
       <c r="AI288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ288" t="s">
         <v>0</v>
@@ -33640,10 +33640,10 @@
         <v>0</v>
       </c>
       <c r="V289" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W289" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X289" t="s">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="AA289" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB289" t="s">
         <v>0</v>
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
       <c r="AM289" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:39">
@@ -33723,7 +33723,7 @@
         <v>2</v>
       </c>
       <c r="K290" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L290" t="s">
         <v>0</v>
@@ -33738,7 +33738,7 @@
         <v>0</v>
       </c>
       <c r="P290" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q290" t="s">
         <v>0</v>
@@ -33786,7 +33786,7 @@
         <v>0</v>
       </c>
       <c r="AF290" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG290" t="s">
         <v>0</v>
@@ -33821,7 +33821,7 @@
         <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F291" t="s">
         <v>0</v>
@@ -33836,11 +33836,11 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
+        <v>1</v>
+      </c>
+      <c r="K291" t="s">
         <v>3</v>
       </c>
-      <c r="K291" t="s">
-        <v>0</v>
-      </c>
       <c r="L291" t="s">
         <v>0</v>
       </c>
@@ -33923,7 +33923,7 @@
         <v>0</v>
       </c>
       <c r="AM291" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:39">
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="AA292" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB292" t="s">
         <v>0</v>
@@ -34018,7 +34018,7 @@
         <v>0</v>
       </c>
       <c r="AF292" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG292" t="s">
         <v>0</v>
@@ -34268,7 +34268,7 @@
         <v>0</v>
       </c>
       <c r="AL294" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM294" t="s">
         <v>0</v>
@@ -34279,7 +34279,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295" t="s">
         <v>0</v>
@@ -34321,61 +34321,61 @@
         <v>2</v>
       </c>
       <c r="Q295" t="s">
+        <v>1</v>
+      </c>
+      <c r="R295" t="s">
+        <v>0</v>
+      </c>
+      <c r="S295" t="s">
+        <v>1</v>
+      </c>
+      <c r="T295" t="s">
+        <v>0</v>
+      </c>
+      <c r="U295" t="s">
+        <v>1</v>
+      </c>
+      <c r="V295" t="s">
+        <v>0</v>
+      </c>
+      <c r="W295" t="s">
+        <v>0</v>
+      </c>
+      <c r="X295" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI295" t="s">
         <v>3</v>
-      </c>
-      <c r="R295" t="s">
-        <v>0</v>
-      </c>
-      <c r="S295" t="s">
-        <v>1</v>
-      </c>
-      <c r="T295" t="s">
-        <v>0</v>
-      </c>
-      <c r="U295" t="s">
-        <v>1</v>
-      </c>
-      <c r="V295" t="s">
-        <v>0</v>
-      </c>
-      <c r="W295" t="s">
-        <v>0</v>
-      </c>
-      <c r="X295" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y295" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH295" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI295" t="s">
-        <v>2</v>
       </c>
       <c r="AJ295" t="s">
         <v>0</v>
@@ -34395,10 +34395,10 @@
         <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E296" t="s">
         <v>0</v>
@@ -34407,7 +34407,7 @@
         <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>0</v>
@@ -34416,7 +34416,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K296" t="s">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>1</v>
@@ -34604,7 +34604,7 @@
         <v>1</v>
       </c>
       <c r="AH297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI297" t="s">
         <v>3</v>
@@ -34693,28 +34693,28 @@
         <v>0</v>
       </c>
       <c r="Y298" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF298" t="s">
         <v>3</v>
-      </c>
-      <c r="Z298" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA298" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB298" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC298" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD298" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE298" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF298" t="s">
-        <v>1</v>
       </c>
       <c r="AG298" t="s">
         <v>0</v>
@@ -34770,7 +34770,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M299" t="s">
         <v>0</v>
@@ -34797,7 +34797,7 @@
         <v>0</v>
       </c>
       <c r="U299" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V299" t="s">
         <v>0</v>
@@ -34818,7 +34818,7 @@
         <v>0</v>
       </c>
       <c r="AB299" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC299" t="s">
         <v>0</v>
@@ -34830,13 +34830,13 @@
         <v>0</v>
       </c>
       <c r="AF299" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG299" t="s">
         <v>0</v>
       </c>
       <c r="AH299" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI299" t="s">
         <v>1</v>
@@ -34898,13 +34898,13 @@
         <v>0</v>
       </c>
       <c r="P300" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q300" t="s">
         <v>0</v>
       </c>
       <c r="R300" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S300" t="s">
         <v>0</v>
@@ -34925,7 +34925,7 @@
         <v>0</v>
       </c>
       <c r="Y300" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z300" t="s">
         <v>0</v>
@@ -35047,10 +35047,10 @@
         <v>0</v>
       </c>
       <c r="AA301" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB301" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC301" t="s">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="D302" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E302" t="s">
         <v>0</v>
@@ -35109,7 +35109,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
         <v>0</v>
@@ -35166,7 +35166,7 @@
         <v>1</v>
       </c>
       <c r="AB302" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC302" t="s">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>1</v>
       </c>
       <c r="U303" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V303" t="s">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>0</v>
       </c>
       <c r="AI303" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ303" t="s">
         <v>0</v>
@@ -35341,7 +35341,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J304" t="s">
         <v>0</v>
@@ -35374,7 +35374,7 @@
         <v>0</v>
       </c>
       <c r="T304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U304" t="s">
         <v>0</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="AI304" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ304" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK304" t="s">
         <v>0</v>
@@ -35561,7 +35561,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F306" t="s">
         <v>0</v>
@@ -35591,61 +35591,61 @@
         <v>0</v>
       </c>
       <c r="O306" t="s">
+        <v>1</v>
+      </c>
+      <c r="P306" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>1</v>
+      </c>
+      <c r="R306" t="s">
+        <v>0</v>
+      </c>
+      <c r="S306" t="s">
+        <v>0</v>
+      </c>
+      <c r="T306" t="s">
+        <v>1</v>
+      </c>
+      <c r="U306" t="s">
+        <v>2</v>
+      </c>
+      <c r="V306" t="s">
+        <v>0</v>
+      </c>
+      <c r="W306" t="s">
+        <v>0</v>
+      </c>
+      <c r="X306" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG306" t="s">
         <v>3</v>
-      </c>
-      <c r="P306" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q306" t="s">
-        <v>1</v>
-      </c>
-      <c r="R306" t="s">
-        <v>0</v>
-      </c>
-      <c r="S306" t="s">
-        <v>0</v>
-      </c>
-      <c r="T306" t="s">
-        <v>2</v>
-      </c>
-      <c r="U306" t="s">
-        <v>2</v>
-      </c>
-      <c r="V306" t="s">
-        <v>0</v>
-      </c>
-      <c r="W306" t="s">
-        <v>0</v>
-      </c>
-      <c r="X306" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y306" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG306" t="s">
-        <v>0</v>
       </c>
       <c r="AH306" t="s">
         <v>0</v>
@@ -35677,7 +35677,7 @@
         <v>0</v>
       </c>
       <c r="E307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F307" t="s">
         <v>1</v>
@@ -35704,7 +35704,7 @@
         <v>0</v>
       </c>
       <c r="N307" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O307" t="s">
         <v>0</v>
@@ -35713,13 +35713,13 @@
         <v>0</v>
       </c>
       <c r="Q307" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R307" t="s">
         <v>2</v>
       </c>
       <c r="S307" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T307" t="s">
         <v>0</v>
@@ -35844,7 +35844,7 @@
         <v>0</v>
       </c>
       <c r="V308" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W308" t="s">
         <v>0</v>
@@ -35859,7 +35859,7 @@
         <v>0</v>
       </c>
       <c r="AA308" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB308" t="s">
         <v>0</v>
@@ -35903,7 +35903,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D309" t="s">
         <v>0</v>
@@ -35930,52 +35930,52 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
+        <v>1</v>
+      </c>
+      <c r="M309" t="s">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
+        <v>0</v>
+      </c>
+      <c r="O309" t="s">
+        <v>1</v>
+      </c>
+      <c r="P309" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>2</v>
+      </c>
+      <c r="R309" t="s">
+        <v>0</v>
+      </c>
+      <c r="S309" t="s">
+        <v>0</v>
+      </c>
+      <c r="T309" t="s">
+        <v>0</v>
+      </c>
+      <c r="U309" t="s">
+        <v>0</v>
+      </c>
+      <c r="V309" t="s">
+        <v>1</v>
+      </c>
+      <c r="W309" t="s">
+        <v>0</v>
+      </c>
+      <c r="X309" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y309" t="s">
         <v>3</v>
       </c>
-      <c r="M309" t="s">
-        <v>0</v>
-      </c>
-      <c r="N309" t="s">
-        <v>0</v>
-      </c>
-      <c r="O309" t="s">
-        <v>1</v>
-      </c>
-      <c r="P309" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q309" t="s">
-        <v>2</v>
-      </c>
-      <c r="R309" t="s">
-        <v>0</v>
-      </c>
-      <c r="S309" t="s">
-        <v>0</v>
-      </c>
-      <c r="T309" t="s">
-        <v>0</v>
-      </c>
-      <c r="U309" t="s">
-        <v>0</v>
-      </c>
-      <c r="V309" t="s">
-        <v>3</v>
-      </c>
-      <c r="W309" t="s">
-        <v>0</v>
-      </c>
-      <c r="X309" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y309" t="s">
-        <v>0</v>
-      </c>
       <c r="Z309" t="s">
         <v>1</v>
       </c>
       <c r="AA309" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB309" t="s">
         <v>0</v>
@@ -35993,7 +35993,7 @@
         <v>0</v>
       </c>
       <c r="AG309" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH309" t="s">
         <v>0</v>
@@ -36011,7 +36011,7 @@
         <v>3</v>
       </c>
       <c r="AM309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:39">
@@ -36043,7 +36043,7 @@
         <v>2</v>
       </c>
       <c r="K310" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L310" t="s">
         <v>1</v>
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T310" t="s">
         <v>0</v>
@@ -36088,10 +36088,10 @@
         <v>0</v>
       </c>
       <c r="Z310" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA310" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB310" t="s">
         <v>0</v>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
       <c r="AG310" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH310" t="s">
         <v>0</v>
@@ -36132,7 +36132,7 @@
     </row>
     <row r="311" spans="1:39">
       <c r="B311" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -36162,7 +36162,7 @@
         <v>1</v>
       </c>
       <c r="L311" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M311" t="s">
         <v>0</v>
@@ -36174,7 +36174,7 @@
         <v>0</v>
       </c>
       <c r="P311" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q311" t="s">
         <v>0</v>
@@ -36207,7 +36207,7 @@
         <v>3</v>
       </c>
       <c r="AA311" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB311" t="s">
         <v>0</v>
@@ -36225,16 +36225,16 @@
         <v>0</v>
       </c>
       <c r="AG311" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH311" t="s">
         <v>0</v>
       </c>
       <c r="AI311" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ311" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK311" t="s">
         <v>0</v>
@@ -36263,7 +36263,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>1</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M312" t="s">
         <v>0</v>
@@ -36326,7 +36326,7 @@
         <v>0</v>
       </c>
       <c r="AB312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC312" t="s">
         <v>0</v>
@@ -36341,7 +36341,7 @@
         <v>0</v>
       </c>
       <c r="AG312" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH312" t="s">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E313" t="s">
         <v>0</v>
@@ -36418,7 +36418,7 @@
         <v>0</v>
       </c>
       <c r="T313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U313" t="s">
         <v>0</v>
@@ -36510,13 +36510,13 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M314" t="s">
         <v>0</v>
       </c>
       <c r="N314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O314" t="s">
         <v>0</v>
@@ -36567,7 +36567,7 @@
         <v>0</v>
       </c>
       <c r="AE314" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF314" t="s">
         <v>0</v>
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="AJ314" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK314" t="s">
         <v>0</v>
@@ -36608,7 +36608,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G315" t="s">
         <v>1</v>
@@ -36632,7 +36632,7 @@
         <v>0</v>
       </c>
       <c r="N315" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O315" t="s">
         <v>1</v>
@@ -36647,7 +36647,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T315" t="s">
         <v>0</v>
@@ -36707,12 +36707,12 @@
         <v>0</v>
       </c>
       <c r="AM315" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:39">
       <c r="B316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -36787,7 +36787,7 @@
         <v>0</v>
       </c>
       <c r="AA316" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB316" t="s">
         <v>1</v>
@@ -36805,7 +36805,7 @@
         <v>0</v>
       </c>
       <c r="AG316" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH316" t="s">
         <v>2</v>
@@ -36814,10 +36814,10 @@
         <v>0</v>
       </c>
       <c r="AJ316" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL316" t="s">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K317" t="s">
         <v>0</v>
@@ -36903,7 +36903,7 @@
         <v>0</v>
       </c>
       <c r="AA317" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB317" t="s">
         <v>0</v>
@@ -36915,7 +36915,7 @@
         <v>0</v>
       </c>
       <c r="AE317" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF317" t="s">
         <v>2</v>
@@ -36930,10 +36930,10 @@
         <v>0</v>
       </c>
       <c r="AJ317" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL317" t="s">
         <v>0</v>
@@ -36980,7 +36980,7 @@
         <v>0</v>
       </c>
       <c r="N318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O318" t="s">
         <v>1</v>
@@ -36992,10 +36992,10 @@
         <v>1</v>
       </c>
       <c r="R318" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T318" t="s">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>0</v>
       </c>
       <c r="W318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X318" t="s">
         <v>0</v>
@@ -37046,7 +37046,7 @@
         <v>0</v>
       </c>
       <c r="AJ318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK318" t="s">
         <v>2</v>
@@ -37055,7 +37055,7 @@
         <v>1</v>
       </c>
       <c r="AM318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:39">
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
       <c r="W319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X319" t="s">
         <v>0</v>
@@ -37138,7 +37138,7 @@
         <v>0</v>
       </c>
       <c r="AB319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC319" t="s">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>1</v>
       </c>
       <c r="AH319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI319" t="s">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="P320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q320" t="s">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>1</v>
       </c>
       <c r="S320" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T320" t="s">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="W320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X320" t="s">
         <v>0</v>
@@ -37313,13 +37313,13 @@
         <v>1</v>
       </c>
       <c r="I321" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J321" t="s">
         <v>0</v>
       </c>
       <c r="K321" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L321" t="s">
         <v>0</v>
@@ -37328,7 +37328,7 @@
         <v>1</v>
       </c>
       <c r="N321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O321" t="s">
         <v>0</v>
@@ -37340,13 +37340,13 @@
         <v>0</v>
       </c>
       <c r="R321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S321" t="s">
         <v>3</v>
       </c>
       <c r="T321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U321" t="s">
         <v>0</v>
@@ -37355,7 +37355,7 @@
         <v>0</v>
       </c>
       <c r="W321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X321" t="s">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="AG321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH321" t="s">
         <v>0</v>
@@ -37417,7 +37417,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F322" t="s">
         <v>0</v>
@@ -37441,58 +37441,58 @@
         <v>0</v>
       </c>
       <c r="M322" t="s">
+        <v>1</v>
+      </c>
+      <c r="N322" t="s">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>0</v>
+      </c>
+      <c r="P322" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>0</v>
+      </c>
+      <c r="R322" t="s">
+        <v>1</v>
+      </c>
+      <c r="S322" t="s">
+        <v>1</v>
+      </c>
+      <c r="T322" t="s">
+        <v>1</v>
+      </c>
+      <c r="U322" t="s">
+        <v>0</v>
+      </c>
+      <c r="V322" t="s">
+        <v>0</v>
+      </c>
+      <c r="W322" t="s">
+        <v>0</v>
+      </c>
+      <c r="X322" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD322" t="s">
         <v>3</v>
-      </c>
-      <c r="N322" t="s">
-        <v>1</v>
-      </c>
-      <c r="O322" t="s">
-        <v>0</v>
-      </c>
-      <c r="P322" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q322" t="s">
-        <v>0</v>
-      </c>
-      <c r="R322" t="s">
-        <v>1</v>
-      </c>
-      <c r="S322" t="s">
-        <v>1</v>
-      </c>
-      <c r="T322" t="s">
-        <v>1</v>
-      </c>
-      <c r="U322" t="s">
-        <v>0</v>
-      </c>
-      <c r="V322" t="s">
-        <v>0</v>
-      </c>
-      <c r="W322" t="s">
-        <v>0</v>
-      </c>
-      <c r="X322" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y322" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z322" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA322" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB322" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC322" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD322" t="s">
-        <v>0</v>
       </c>
       <c r="AE322" t="s">
         <v>1</v>
@@ -37578,7 +37578,7 @@
         <v>1</v>
       </c>
       <c r="T323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U323" t="s">
         <v>0</v>
@@ -37617,7 +37617,7 @@
         <v>0</v>
       </c>
       <c r="AG323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH323" t="s">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="C324" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D324" t="s">
         <v>0</v>
@@ -37679,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="O324" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P324" t="s">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="W324" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X324" t="s">
         <v>0</v>
@@ -37742,7 +37742,7 @@
         <v>0</v>
       </c>
       <c r="AJ324" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK324" t="s">
         <v>0</v>
@@ -37751,7 +37751,7 @@
         <v>0</v>
       </c>
       <c r="AM324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:39">
@@ -37822,7 +37822,7 @@
         <v>0</v>
       </c>
       <c r="X325" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y325" t="s">
         <v>0</v>
@@ -37872,7 +37872,7 @@
     </row>
     <row r="326" spans="1:39">
       <c r="B326" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C326" t="s">
         <v>0</v>
@@ -37890,7 +37890,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I326" t="s">
         <v>1</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="AK326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL326" t="s">
         <v>0</v>
@@ -37988,7 +37988,7 @@
     </row>
     <row r="327" spans="1:39">
       <c r="B327" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C327" t="s">
         <v>0</v>
@@ -38030,7 +38030,7 @@
         <v>0</v>
       </c>
       <c r="P327" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q327" t="s">
         <v>0</v>
@@ -38104,7 +38104,7 @@
     </row>
     <row r="328" spans="1:39">
       <c r="B328" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C328" t="s">
         <v>0</v>
@@ -38161,7 +38161,7 @@
         <v>0</v>
       </c>
       <c r="U328" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V328" t="s">
         <v>0</v>
@@ -38176,7 +38176,7 @@
         <v>0</v>
       </c>
       <c r="Z328" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA328" t="s">
         <v>0</v>
@@ -38247,7 +38247,7 @@
         <v>0</v>
       </c>
       <c r="K329" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L329" t="s">
         <v>1</v>
@@ -38256,7 +38256,7 @@
         <v>3</v>
       </c>
       <c r="N329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O329" t="s">
         <v>0</v>
@@ -38298,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="AB329" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC329" t="s">
         <v>0</v>
@@ -38408,7 +38408,7 @@
         <v>0</v>
       </c>
       <c r="Z330" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA330" t="s">
         <v>0</v>
@@ -38458,7 +38458,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -38476,7 +38476,7 @@
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K331" t="s">
         <v>1</v>
@@ -38488,23 +38488,23 @@
         <v>0</v>
       </c>
       <c r="N331" t="s">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>0</v>
+      </c>
+      <c r="P331" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>0</v>
+      </c>
+      <c r="R331" t="s">
+        <v>0</v>
+      </c>
+      <c r="S331" t="s">
         <v>3</v>
       </c>
-      <c r="O331" t="s">
-        <v>0</v>
-      </c>
-      <c r="P331" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q331" t="s">
-        <v>0</v>
-      </c>
-      <c r="R331" t="s">
-        <v>0</v>
-      </c>
-      <c r="S331" t="s">
-        <v>1</v>
-      </c>
       <c r="T331" t="s">
         <v>2</v>
       </c>
@@ -38530,7 +38530,7 @@
         <v>0</v>
       </c>
       <c r="AB331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC331" t="s">
         <v>0</v>
@@ -38592,7 +38592,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K332" t="s">
         <v>0</v>
@@ -38640,7 +38640,7 @@
         <v>0</v>
       </c>
       <c r="Z332" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA332" t="s">
         <v>0</v>
@@ -38649,7 +38649,7 @@
         <v>1</v>
       </c>
       <c r="AC332" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD332" t="s">
         <v>0</v>
@@ -38684,7 +38684,7 @@
     </row>
     <row r="333" spans="1:39">
       <c r="B333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C333" t="s">
         <v>1</v>
@@ -38765,10 +38765,10 @@
         <v>1</v>
       </c>
       <c r="AC333" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD333" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE333" t="s">
         <v>0</v>
@@ -38881,7 +38881,7 @@
         <v>0</v>
       </c>
       <c r="AC334" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD334" t="s">
         <v>0</v>
@@ -38919,7 +38919,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335" t="s">
         <v>0</v>
@@ -38940,7 +38940,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
         <v>0</v>
@@ -38985,10 +38985,10 @@
         <v>0</v>
       </c>
       <c r="Y335" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA335" t="s">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         <v>3</v>
       </c>
       <c r="AC335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD335" t="s">
         <v>0</v>
@@ -39009,7 +39009,7 @@
         <v>0</v>
       </c>
       <c r="AG335" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH335" t="s">
         <v>0</v>
@@ -39101,10 +39101,10 @@
         <v>0</v>
       </c>
       <c r="Y336" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA336" t="s">
         <v>0</v>
@@ -39113,7 +39113,7 @@
         <v>0</v>
       </c>
       <c r="AC336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD336" t="s">
         <v>0</v>
@@ -39125,7 +39125,7 @@
         <v>0</v>
       </c>
       <c r="AG336" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH336" t="s">
         <v>2</v>
@@ -39241,7 +39241,7 @@
         <v>1</v>
       </c>
       <c r="AG337" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH337" t="s">
         <v>2</v>
@@ -39267,7 +39267,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D338" t="s">
         <v>0</v>
@@ -39318,7 +39318,7 @@
         <v>0</v>
       </c>
       <c r="T338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U338" t="s">
         <v>1</v>
@@ -39357,10 +39357,10 @@
         <v>0</v>
       </c>
       <c r="AG338" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI338" t="s">
         <v>0</v>
@@ -39392,7 +39392,7 @@
         <v>2</v>
       </c>
       <c r="F339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G339" t="s">
         <v>0</v>
@@ -39422,13 +39422,13 @@
         <v>0</v>
       </c>
       <c r="P339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q339" t="s">
         <v>0</v>
       </c>
       <c r="R339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S339" t="s">
         <v>0</v>
@@ -39449,13 +39449,13 @@
         <v>0</v>
       </c>
       <c r="Y339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z339" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA339" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB339" t="s">
         <v>0</v>
@@ -39473,7 +39473,7 @@
         <v>2</v>
       </c>
       <c r="AG339" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH339" t="s">
         <v>0</v>
@@ -39508,7 +39508,7 @@
         <v>2</v>
       </c>
       <c r="F340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G340" t="s">
         <v>2</v>
@@ -39577,7 +39577,7 @@
         <v>2</v>
       </c>
       <c r="AC340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD340" t="s">
         <v>0</v>
@@ -39589,7 +39589,7 @@
         <v>0</v>
       </c>
       <c r="AG340" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH340" t="s">
         <v>0</v>
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
       <c r="AM340" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:39">
@@ -39639,7 +39639,7 @@
         <v>0</v>
       </c>
       <c r="K341" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L341" t="s">
         <v>0</v>
@@ -39669,13 +39669,13 @@
         <v>0</v>
       </c>
       <c r="U341" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V341" t="s">
         <v>1</v>
       </c>
       <c r="W341" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X341" t="s">
         <v>0</v>
@@ -39764,13 +39764,13 @@
         <v>0</v>
       </c>
       <c r="N342" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O342" t="s">
         <v>0</v>
       </c>
       <c r="P342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q342" t="s">
         <v>0</v>
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="T342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U342" t="s">
         <v>0</v>
@@ -39791,7 +39791,7 @@
         <v>0</v>
       </c>
       <c r="W342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X342" t="s">
         <v>0</v>
@@ -39833,7 +39833,7 @@
         <v>0</v>
       </c>
       <c r="AK342" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL342" t="s">
         <v>0</v>
@@ -39949,7 +39949,7 @@
         <v>0</v>
       </c>
       <c r="AK343" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL343" t="s">
         <v>0</v>
@@ -40053,7 +40053,7 @@
         <v>0</v>
       </c>
       <c r="AG344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH344" t="s">
         <v>0</v>
@@ -40076,7 +40076,7 @@
     </row>
     <row r="345" spans="1:39">
       <c r="B345" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C345" t="s">
         <v>0</v>
@@ -40157,7 +40157,7 @@
         <v>0</v>
       </c>
       <c r="AC345" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD345" t="s">
         <v>0</v>
@@ -40210,10 +40210,10 @@
         <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
         <v>0</v>
@@ -40273,7 +40273,7 @@
         <v>1</v>
       </c>
       <c r="AC346" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD346" t="s">
         <v>0</v>
@@ -40308,16 +40308,16 @@
     </row>
     <row r="347" spans="1:39">
       <c r="B347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C347" t="s">
         <v>0</v>
       </c>
       <c r="D347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F347" t="s">
         <v>0</v>
@@ -40341,7 +40341,7 @@
         <v>0</v>
       </c>
       <c r="M347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N347" t="s">
         <v>0</v>
@@ -40386,7 +40386,7 @@
         <v>2</v>
       </c>
       <c r="AB347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC347" t="s">
         <v>0</v>
@@ -40430,10 +40430,10 @@
         <v>0</v>
       </c>
       <c r="D348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F348" t="s">
         <v>0</v>
@@ -40445,7 +40445,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J348" t="s">
         <v>0</v>
@@ -40612,13 +40612,13 @@
         <v>0</v>
       </c>
       <c r="Z349" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA349" t="s">
         <v>0</v>
       </c>
       <c r="AB349" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC349" t="s">
         <v>0</v>
@@ -40648,7 +40648,7 @@
         <v>0</v>
       </c>
       <c r="AL349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM349" t="s">
         <v>0</v>
@@ -40725,7 +40725,7 @@
         <v>0</v>
       </c>
       <c r="Y350" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z350" t="s">
         <v>0</v>
@@ -40808,7 +40808,7 @@
         <v>0</v>
       </c>
       <c r="N351" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O351" t="s">
         <v>0</v>
@@ -40823,7 +40823,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T351" t="s">
         <v>0</v>
@@ -40912,7 +40912,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K352" t="s">
         <v>0</v>
@@ -40963,7 +40963,7 @@
         <v>0</v>
       </c>
       <c r="AA352" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB352" t="s">
         <v>0</v>
@@ -41067,7 +41067,7 @@
         <v>1</v>
       </c>
       <c r="W353" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X353" t="s">
         <v>2</v>
@@ -41222,7 +41222,7 @@
         <v>0</v>
       </c>
       <c r="AJ354" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK354" t="s">
         <v>0</v>
@@ -41231,7 +41231,7 @@
         <v>0</v>
       </c>
       <c r="AM354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:39">
@@ -41266,7 +41266,7 @@
         <v>0</v>
       </c>
       <c r="L355" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M355" t="s">
         <v>1</v>
@@ -41275,7 +41275,7 @@
         <v>0</v>
       </c>
       <c r="O355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P355" t="s">
         <v>1</v>
@@ -41287,7 +41287,7 @@
         <v>1</v>
       </c>
       <c r="S355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T355" t="s">
         <v>0</v>
@@ -41347,7 +41347,7 @@
         <v>2</v>
       </c>
       <c r="AM355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:39">
@@ -41391,7 +41391,7 @@
         <v>2</v>
       </c>
       <c r="O356" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P356" t="s">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         <v>0</v>
       </c>
       <c r="AG356" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH356" t="s">
         <v>0</v>
@@ -41483,7 +41483,7 @@
         <v>1</v>
       </c>
       <c r="G357" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H357" t="s">
         <v>0</v>
@@ -41516,7 +41516,7 @@
         <v>0</v>
       </c>
       <c r="R357" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S357" t="s">
         <v>0</v>
@@ -41555,7 +41555,7 @@
         <v>3</v>
       </c>
       <c r="AE357" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF357" t="s">
         <v>0</v>
@@ -41579,7 +41579,7 @@
         <v>0</v>
       </c>
       <c r="AM357" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:39">
@@ -41644,13 +41644,13 @@
         <v>1</v>
       </c>
       <c r="V358" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W358" t="s">
         <v>2</v>
       </c>
       <c r="X358" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y358" t="s">
         <v>0</v>
@@ -41677,7 +41677,7 @@
         <v>0</v>
       </c>
       <c r="AG358" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH358" t="s">
         <v>0</v>
@@ -41709,7 +41709,7 @@
         <v>0</v>
       </c>
       <c r="E359" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F359" t="s">
         <v>1</v>
@@ -41935,7 +41935,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D361" t="s">
         <v>0</v>
@@ -42051,7 +42051,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="s">
         <v>0</v>
@@ -42248,7 +42248,7 @@
         <v>0</v>
       </c>
       <c r="AD363" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE363" t="s">
         <v>1</v>
@@ -42266,7 +42266,7 @@
         <v>0</v>
       </c>
       <c r="AJ363" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK363" t="s">
         <v>0</v>
@@ -42319,7 +42319,7 @@
         <v>0</v>
       </c>
       <c r="O364" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P364" t="s">
         <v>0</v>
@@ -42328,7 +42328,7 @@
         <v>0</v>
       </c>
       <c r="R364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S364" t="s">
         <v>0</v>
@@ -42364,10 +42364,10 @@
         <v>0</v>
       </c>
       <c r="AD364" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF364" t="s">
         <v>2</v>
@@ -42423,7 +42423,7 @@
         <v>0</v>
       </c>
       <c r="K365" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L365" t="s">
         <v>1</v>
@@ -42444,7 +42444,7 @@
         <v>0</v>
       </c>
       <c r="R365" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S365" t="s">
         <v>0</v>
@@ -42474,7 +42474,7 @@
         <v>2</v>
       </c>
       <c r="AB365" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC365" t="s">
         <v>0</v>
@@ -42498,7 +42498,7 @@
         <v>0</v>
       </c>
       <c r="AJ365" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK365" t="s">
         <v>0</v>
@@ -42539,7 +42539,7 @@
         <v>2</v>
       </c>
       <c r="K366" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L366" t="s">
         <v>2</v>
@@ -42712,7 +42712,7 @@
         <v>2</v>
       </c>
       <c r="AD367" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE367" t="s">
         <v>0</v>

--- a/python/Statistics/Results/RST_classification_ERA_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_ERA_1979-2016.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14246" uniqueCount="16">
   <si>
     <t>No RST</t>
   </si>
@@ -28,30 +32,80 @@
   <si>
     <t>West</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,17 +113,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,20 +441,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:AM367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>1979</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1980</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1981</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1982</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1983</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1984</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1985</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1986</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1987</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1988</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1989</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1990</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1991</v>
+      </c>
+      <c r="O1" s="2">
+        <v>1992</v>
+      </c>
+      <c r="P1" s="2">
+        <v>1993</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>1994</v>
+      </c>
+      <c r="R1" s="2">
+        <v>1995</v>
+      </c>
+      <c r="S1" s="2">
+        <v>1996</v>
+      </c>
+      <c r="T1" s="2">
+        <v>1997</v>
+      </c>
+      <c r="U1" s="2">
+        <v>1998</v>
+      </c>
+      <c r="V1" s="2">
+        <v>1999</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -718,7 +924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +1043,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1519,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1757,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1876,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1762,7 +1995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +2114,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -2110,7 +2352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2471,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +2709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2947,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +3066,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +3185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3423,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -3386,7 +3661,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -3618,7 +3899,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +4018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3850,7 +4137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -3966,7 +4256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +4375,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4494,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4613,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4732,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +5089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -4894,7 +5208,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5327,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +5446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5565,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -5474,7 +5803,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +6041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -5822,7 +6160,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +6279,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -6750,7 +7112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -6866,7 +7231,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -6982,7 +7350,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -7098,7 +7469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -7214,7 +7588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7623,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
@@ -7362,7 +7742,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7861,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -7594,7 +7980,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +8099,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
@@ -7826,7 +8218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -7942,7 +8337,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -8058,7 +8456,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8575,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8694,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8813,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -8522,7 +8932,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -8638,7 +9051,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -8754,7 +9170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -8870,7 +9289,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
@@ -8986,7 +9408,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9527,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -9218,7 +9646,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -9334,7 +9765,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -9450,7 +9884,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -9566,7 +10003,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -9682,7 +10122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +10241,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +10360,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -10030,7 +10479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10717,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -10494,7 +10955,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -10610,7 +11074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +11193,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +11312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -10958,7 +11431,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11550,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
@@ -11190,7 +11669,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -11306,7 +11788,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -11422,7 +11907,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B98" t="s">
         <v>1</v>
       </c>
@@ -11538,7 +12026,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
@@ -11654,7 +12145,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
@@ -11770,7 +12264,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -11886,7 +12383,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -12002,7 +12502,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +12621,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -12234,7 +12740,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -12466,7 +12978,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -12582,7 +13097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -12698,7 +13216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B109" t="s">
         <v>1</v>
       </c>
@@ -12814,7 +13335,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
@@ -12930,7 +13454,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13573,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
@@ -13162,7 +13692,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -13278,7 +13811,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
@@ -13394,7 +13930,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
@@ -13510,7 +14049,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
@@ -13626,7 +14168,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -13742,7 +14287,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -13858,7 +14406,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B119" t="s">
         <v>1</v>
       </c>
@@ -13974,7 +14525,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B120" t="s">
         <v>1</v>
       </c>
@@ -14090,7 +14644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B121" t="s">
         <v>1</v>
       </c>
@@ -14206,7 +14763,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
@@ -14322,7 +14882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
@@ -14438,7 +15001,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
@@ -14554,7 +15120,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -14670,7 +15239,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
@@ -14786,7 +15358,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +15477,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -15018,7 +15596,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
@@ -15134,7 +15715,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +15834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
@@ -15366,7 +15953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B132" t="s">
         <v>0</v>
       </c>
@@ -15482,7 +16072,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
@@ -15598,7 +16191,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
@@ -15714,7 +16310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
@@ -15830,7 +16429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
@@ -15946,7 +16548,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
@@ -16062,7 +16667,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
@@ -16178,7 +16786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
@@ -16294,7 +16905,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
@@ -16410,7 +17024,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
@@ -16526,7 +17143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
@@ -16642,7 +17262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
@@ -16758,7 +17381,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B144" t="s">
         <v>0</v>
       </c>
@@ -16874,7 +17500,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
@@ -16990,7 +17619,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
@@ -17106,7 +17738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
@@ -17222,7 +17857,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
@@ -17338,7 +17976,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
@@ -17454,7 +18095,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
@@ -17570,7 +18214,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
@@ -17686,7 +18333,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
@@ -17802,7 +18452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
@@ -17918,7 +18571,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
@@ -18034,7 +18690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B155" t="s">
         <v>3</v>
       </c>
@@ -18150,7 +18809,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
@@ -18266,7 +18928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
@@ -18382,7 +19047,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
@@ -18498,7 +19166,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
@@ -18614,7 +19285,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B160" t="s">
         <v>0</v>
       </c>
@@ -18730,7 +19404,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B161" t="s">
         <v>0</v>
       </c>
@@ -18846,7 +19523,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -18962,7 +19642,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B163" t="s">
         <v>0</v>
       </c>
@@ -19078,7 +19761,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B164" t="s">
         <v>0</v>
       </c>
@@ -19194,7 +19880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B165" t="s">
         <v>0</v>
       </c>
@@ -19310,7 +19999,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B166" t="s">
         <v>0</v>
       </c>
@@ -19426,7 +20118,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
@@ -19542,7 +20237,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B168" t="s">
         <v>0</v>
       </c>
@@ -19658,7 +20356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B169" t="s">
         <v>0</v>
       </c>
@@ -19774,7 +20475,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B170" t="s">
         <v>0</v>
       </c>
@@ -19890,7 +20594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B171" t="s">
         <v>0</v>
       </c>
@@ -20006,7 +20713,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B172" t="s">
         <v>0</v>
       </c>
@@ -20122,7 +20832,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B173" t="s">
         <v>0</v>
       </c>
@@ -20238,7 +20951,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B174" t="s">
         <v>0</v>
       </c>
@@ -20354,7 +21070,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B175" t="s">
         <v>0</v>
       </c>
@@ -20470,7 +21189,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B176" t="s">
         <v>0</v>
       </c>
@@ -20586,7 +21308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B177" t="s">
         <v>0</v>
       </c>
@@ -20702,7 +21427,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B178" t="s">
         <v>0</v>
       </c>
@@ -20818,7 +21546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B179" t="s">
         <v>0</v>
       </c>
@@ -20934,7 +21665,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B180" t="s">
         <v>0</v>
       </c>
@@ -21050,7 +21784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B181" t="s">
         <v>0</v>
       </c>
@@ -21166,7 +21903,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B182" t="s">
         <v>0</v>
       </c>
@@ -21282,7 +22022,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B183" t="s">
         <v>0</v>
       </c>
@@ -21398,7 +22141,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B184" t="s">
         <v>0</v>
       </c>
@@ -21514,7 +22260,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B185" t="s">
         <v>0</v>
       </c>
@@ -21630,7 +22379,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B186" t="s">
         <v>0</v>
       </c>
@@ -21746,7 +22498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B187" t="s">
         <v>0</v>
       </c>
@@ -21862,7 +22617,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
@@ -21978,7 +22736,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B189" t="s">
         <v>0</v>
       </c>
@@ -22094,7 +22855,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B190" t="s">
         <v>0</v>
       </c>
@@ -22210,7 +22974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
@@ -22326,7 +23093,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
@@ -22442,7 +23212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B193" t="s">
         <v>0</v>
       </c>
@@ -22558,7 +23331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B194" t="s">
         <v>0</v>
       </c>
@@ -22674,7 +23450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B195" t="s">
         <v>0</v>
       </c>
@@ -22790,7 +23569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B196" t="s">
         <v>0</v>
       </c>
@@ -22906,7 +23688,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B197" t="s">
         <v>0</v>
       </c>
@@ -23022,7 +23807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B198" t="s">
         <v>0</v>
       </c>
@@ -23138,7 +23926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B199" t="s">
         <v>0</v>
       </c>
@@ -23254,7 +24045,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B200" t="s">
         <v>0</v>
       </c>
@@ -23370,7 +24164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B201" t="s">
         <v>0</v>
       </c>
@@ -23486,7 +24283,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -23602,7 +24402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B203" t="s">
         <v>0</v>
       </c>
@@ -23718,7 +24521,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B204" t="s">
         <v>0</v>
       </c>
@@ -23834,7 +24640,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B205" t="s">
         <v>0</v>
       </c>
@@ -23950,7 +24759,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B206" t="s">
         <v>0</v>
       </c>
@@ -24066,7 +24878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B207" t="s">
         <v>0</v>
       </c>
@@ -24182,7 +24997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B208" t="s">
         <v>0</v>
       </c>
@@ -24298,7 +25116,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B209" t="s">
         <v>0</v>
       </c>
@@ -24414,7 +25235,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B210" t="s">
         <v>0</v>
       </c>
@@ -24530,7 +25354,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B211" t="s">
         <v>0</v>
       </c>
@@ -24646,7 +25473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B212" t="s">
         <v>0</v>
       </c>
@@ -24762,7 +25592,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B213" t="s">
         <v>0</v>
       </c>
@@ -24878,7 +25711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B214" t="s">
         <v>0</v>
       </c>
@@ -24994,7 +25830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B215" t="s">
         <v>0</v>
       </c>
@@ -25110,7 +25949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B216" t="s">
         <v>0</v>
       </c>
@@ -25226,7 +26068,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B217" t="s">
         <v>0</v>
       </c>
@@ -25342,7 +26187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B218" t="s">
         <v>0</v>
       </c>
@@ -25458,7 +26306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B219" t="s">
         <v>0</v>
       </c>
@@ -25574,7 +26425,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B220" t="s">
         <v>0</v>
       </c>
@@ -25690,7 +26544,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B221" t="s">
         <v>0</v>
       </c>
@@ -25806,7 +26663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B222" t="s">
         <v>0</v>
       </c>
@@ -25922,7 +26782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B223" t="s">
         <v>0</v>
       </c>
@@ -26038,7 +26901,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:39">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B224" t="s">
         <v>0</v>
       </c>
@@ -26154,7 +27020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B225" t="s">
         <v>0</v>
       </c>
@@ -26270,7 +27139,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B226" t="s">
         <v>0</v>
       </c>
@@ -26386,7 +27258,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B227" t="s">
         <v>0</v>
       </c>
@@ -26502,7 +27377,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B228" t="s">
         <v>0</v>
       </c>
@@ -26618,7 +27496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B229" t="s">
         <v>0</v>
       </c>
@@ -26734,7 +27615,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B230" t="s">
         <v>0</v>
       </c>
@@ -26850,7 +27734,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B231" t="s">
         <v>0</v>
       </c>
@@ -26966,7 +27853,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B232" t="s">
         <v>0</v>
       </c>
@@ -27082,7 +27972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B233" t="s">
         <v>0</v>
       </c>
@@ -27198,7 +28091,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B234" t="s">
         <v>0</v>
       </c>
@@ -27314,7 +28210,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B235" t="s">
         <v>0</v>
       </c>
@@ -27430,7 +28329,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B236" t="s">
         <v>0</v>
       </c>
@@ -27546,7 +28448,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B237" t="s">
         <v>0</v>
       </c>
@@ -27662,7 +28567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B238" t="s">
         <v>0</v>
       </c>
@@ -27778,7 +28686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B239" t="s">
         <v>0</v>
       </c>
@@ -27894,7 +28805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B240" t="s">
         <v>0</v>
       </c>
@@ -28010,7 +28924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B241" t="s">
         <v>0</v>
       </c>
@@ -28126,7 +29043,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B242" t="s">
         <v>0</v>
       </c>
@@ -28242,7 +29162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B243" t="s">
         <v>0</v>
       </c>
@@ -28358,7 +29281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B244" t="s">
         <v>0</v>
       </c>
@@ -28474,7 +29400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B245" t="s">
         <v>0</v>
       </c>
@@ -28590,7 +29519,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B246" t="s">
         <v>0</v>
       </c>
@@ -28706,7 +29638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B247" t="s">
         <v>0</v>
       </c>
@@ -28822,7 +29757,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B248" t="s">
         <v>0</v>
       </c>
@@ -28938,7 +29876,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B249" t="s">
         <v>0</v>
       </c>
@@ -29054,7 +29995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B250" t="s">
         <v>0</v>
       </c>
@@ -29170,7 +30114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B251" t="s">
         <v>0</v>
       </c>
@@ -29286,7 +30233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B252" t="s">
         <v>0</v>
       </c>
@@ -29402,7 +30352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B253" t="s">
         <v>0</v>
       </c>
@@ -29518,7 +30471,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B254" t="s">
         <v>0</v>
       </c>
@@ -29634,7 +30590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B255" t="s">
         <v>0</v>
       </c>
@@ -29750,7 +30709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B256" t="s">
         <v>0</v>
       </c>
@@ -29866,7 +30828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B257" t="s">
         <v>0</v>
       </c>
@@ -29982,7 +30947,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B258" t="s">
         <v>0</v>
       </c>
@@ -30098,7 +31066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B259" t="s">
         <v>0</v>
       </c>
@@ -30214,7 +31185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B260" t="s">
         <v>0</v>
       </c>
@@ -30330,7 +31304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B261" t="s">
         <v>0</v>
       </c>
@@ -30446,7 +31423,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B262" t="s">
         <v>0</v>
       </c>
@@ -30562,7 +31542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B263" t="s">
         <v>0</v>
       </c>
@@ -30678,7 +31661,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B264" t="s">
         <v>0</v>
       </c>
@@ -30794,7 +31780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B265" t="s">
         <v>0</v>
       </c>
@@ -30910,7 +31899,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B266" t="s">
         <v>0</v>
       </c>
@@ -31026,7 +32018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B267" t="s">
         <v>0</v>
       </c>
@@ -31142,7 +32137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B268" t="s">
         <v>0</v>
       </c>
@@ -31258,7 +32256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B269" t="s">
         <v>0</v>
       </c>
@@ -31374,7 +32375,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B270" t="s">
         <v>0</v>
       </c>
@@ -31490,7 +32494,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B271" t="s">
         <v>0</v>
       </c>
@@ -31606,7 +32613,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B272" t="s">
         <v>0</v>
       </c>
@@ -31722,7 +32732,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B273" t="s">
         <v>3</v>
       </c>
@@ -31838,7 +32851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B274" t="s">
         <v>3</v>
       </c>
@@ -31954,7 +32970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:39">
+    <row r="275" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B275" t="s">
         <v>0</v>
       </c>
@@ -32070,7 +33089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B276" t="s">
         <v>0</v>
       </c>
@@ -32186,7 +33208,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B277" t="s">
         <v>0</v>
       </c>
@@ -32302,7 +33327,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B278" t="s">
         <v>0</v>
       </c>
@@ -32418,7 +33446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B279" t="s">
         <v>0</v>
       </c>
@@ -32534,7 +33565,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B280" t="s">
         <v>0</v>
       </c>
@@ -32650,7 +33684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B281" t="s">
         <v>0</v>
       </c>
@@ -32766,7 +33803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B282" t="s">
         <v>1</v>
       </c>
@@ -32882,7 +33922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B283" t="s">
         <v>0</v>
       </c>
@@ -32998,7 +34041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B284" t="s">
         <v>0</v>
       </c>
@@ -33114,7 +34160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B285" t="s">
         <v>0</v>
       </c>
@@ -33230,7 +34279,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B286" t="s">
         <v>0</v>
       </c>
@@ -33346,7 +34398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B287" t="s">
         <v>0</v>
       </c>
@@ -33462,7 +34517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B288" t="s">
         <v>0</v>
       </c>
@@ -33578,7 +34636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B289" t="s">
         <v>0</v>
       </c>
@@ -33694,7 +34755,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:39">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B290" t="s">
         <v>0</v>
       </c>
@@ -33810,7 +34874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:39">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B291" t="s">
         <v>0</v>
       </c>
@@ -33926,7 +34993,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:39">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B292" t="s">
         <v>0</v>
       </c>
@@ -34042,7 +35112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:39">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B293" t="s">
         <v>0</v>
       </c>
@@ -34158,7 +35231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B294" t="s">
         <v>0</v>
       </c>
@@ -34274,7 +35350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B295" t="s">
         <v>0</v>
       </c>
@@ -34390,7 +35469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:39">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B296" t="s">
         <v>0</v>
       </c>
@@ -34506,7 +35588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:39">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B297" t="s">
         <v>3</v>
       </c>
@@ -34622,7 +35707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B298" t="s">
         <v>0</v>
       </c>
@@ -34738,7 +35826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B299" t="s">
         <v>0</v>
       </c>
@@ -34854,7 +35945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B300" t="s">
         <v>0</v>
       </c>
@@ -34970,7 +36064,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:39">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B301" t="s">
         <v>0</v>
       </c>
@@ -35086,7 +36183,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:39">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B302" t="s">
         <v>0</v>
       </c>
@@ -35202,7 +36302,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:39">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B303" t="s">
         <v>0</v>
       </c>
@@ -35318,7 +36421,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:39">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B304" t="s">
         <v>0</v>
       </c>
@@ -35434,7 +36540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B305" t="s">
         <v>0</v>
       </c>
@@ -35550,7 +36659,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B306" t="s">
         <v>0</v>
       </c>
@@ -35666,7 +36778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B307" t="s">
         <v>0</v>
       </c>
@@ -35782,7 +36897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B308" t="s">
         <v>0</v>
       </c>
@@ -35898,7 +37016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:39">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B309" t="s">
         <v>0</v>
       </c>
@@ -36014,7 +37135,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B310" t="s">
         <v>0</v>
       </c>
@@ -36130,7 +37254,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:39">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B311" t="s">
         <v>2</v>
       </c>
@@ -36246,7 +37373,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B312" t="s">
         <v>0</v>
       </c>
@@ -36362,7 +37492,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B313" t="s">
         <v>0</v>
       </c>
@@ -36478,7 +37611,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B314" t="s">
         <v>0</v>
       </c>
@@ -36594,7 +37730,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:39">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B315" t="s">
         <v>1</v>
       </c>
@@ -36710,7 +37849,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:39">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B316" t="s">
         <v>1</v>
       </c>
@@ -36826,7 +37968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:39">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B317" t="s">
         <v>0</v>
       </c>
@@ -36942,7 +38087,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B318" t="s">
         <v>0</v>
       </c>
@@ -37058,7 +38206,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:39">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B319" t="s">
         <v>2</v>
       </c>
@@ -37174,7 +38325,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:39">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B320" t="s">
         <v>0</v>
       </c>
@@ -37290,7 +38444,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:39">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B321" t="s">
         <v>0</v>
       </c>
@@ -37406,7 +38563,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B322" t="s">
         <v>0</v>
       </c>
@@ -37522,7 +38682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B323" t="s">
         <v>0</v>
       </c>
@@ -37638,7 +38801,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B324" t="s">
         <v>0</v>
       </c>
@@ -37754,7 +38920,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B325" t="s">
         <v>0</v>
       </c>
@@ -37870,7 +39039,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:39">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B326" t="s">
         <v>1</v>
       </c>
@@ -37986,7 +39158,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:39">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B327" t="s">
         <v>1</v>
       </c>
@@ -38102,7 +39277,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:39">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B328" t="s">
         <v>1</v>
       </c>
@@ -38218,7 +39396,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:39">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B329" t="s">
         <v>1</v>
       </c>
@@ -38334,7 +39515,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:39">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B330" t="s">
         <v>1</v>
       </c>
@@ -38450,7 +39634,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:39">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B331" t="s">
         <v>0</v>
       </c>
@@ -38566,7 +39753,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B332" t="s">
         <v>0</v>
       </c>
@@ -38682,7 +39872,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B333" t="s">
         <v>1</v>
       </c>
@@ -38798,7 +39991,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B334" t="s">
         <v>0</v>
       </c>
@@ -38914,7 +40110,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:39">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B335" t="s">
         <v>0</v>
       </c>
@@ -39030,7 +40229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B336" t="s">
         <v>0</v>
       </c>
@@ -39146,7 +40348,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B337" t="s">
         <v>0</v>
       </c>
@@ -39262,7 +40467,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B338" t="s">
         <v>0</v>
       </c>
@@ -39378,7 +40586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B339" t="s">
         <v>3</v>
       </c>
@@ -39494,7 +40705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B340" t="s">
         <v>2</v>
       </c>
@@ -39610,7 +40824,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B341" t="s">
         <v>0</v>
       </c>
@@ -39726,7 +40943,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:39">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B342" t="s">
         <v>0</v>
       </c>
@@ -39842,7 +41062,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:39">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B343" t="s">
         <v>0</v>
       </c>
@@ -39958,7 +41181,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B344" t="s">
         <v>0</v>
       </c>
@@ -40074,7 +41300,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:39">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B345" t="s">
         <v>1</v>
       </c>
@@ -40190,7 +41419,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:39">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B346" t="s">
         <v>0</v>
       </c>
@@ -40306,7 +41538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B347" t="s">
         <v>1</v>
       </c>
@@ -40422,7 +41657,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B348" t="s">
         <v>0</v>
       </c>
@@ -40538,7 +41776,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:39">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B349" t="s">
         <v>0</v>
       </c>
@@ -40654,7 +41895,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B350" t="s">
         <v>0</v>
       </c>
@@ -40770,7 +42014,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B351" t="s">
         <v>0</v>
       </c>
@@ -40886,7 +42133,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B352" t="s">
         <v>0</v>
       </c>
@@ -41002,7 +42252,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B353" t="s">
         <v>0</v>
       </c>
@@ -41118,7 +42371,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B354" t="s">
         <v>0</v>
       </c>
@@ -41234,7 +42490,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B355" t="s">
         <v>0</v>
       </c>
@@ -41350,7 +42609,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B356" t="s">
         <v>0</v>
       </c>
@@ -41466,7 +42728,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B357" t="s">
         <v>0</v>
       </c>
@@ -41582,7 +42847,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:39">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B358" t="s">
         <v>1</v>
       </c>
@@ -41698,7 +42966,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:39">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B359" t="s">
         <v>3</v>
       </c>
@@ -41814,7 +43085,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:39">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B360" t="s">
         <v>0</v>
       </c>
@@ -41930,7 +43204,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:39">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B361" t="s">
         <v>0</v>
       </c>
@@ -42046,7 +43323,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B362" t="s">
         <v>0</v>
       </c>
@@ -42162,7 +43442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B363" t="s">
         <v>0</v>
       </c>
@@ -42278,7 +43561,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B364" t="s">
         <v>0</v>
       </c>
@@ -42394,7 +43680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:39">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B365" t="s">
         <v>0</v>
       </c>
@@ -42510,7 +43799,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B366" t="s">
         <v>0</v>
       </c>
@@ -42626,7 +43918,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B367" t="s">
         <v>0</v>
       </c>
@@ -42743,6 +44038,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/Statistics/Results/RST_classification_ERA_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_ERA_1979-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637D9D9-7451-48CC-95EA-DC7E58F16204}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50AAE3-A4C5-4212-B9FC-9831ABCC6648}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14246" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14249" uniqueCount="16">
   <si>
     <t>No RST</t>
   </si>
@@ -430,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN367"/>
+  <dimension ref="A1:AQ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4:AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1979</v>
@@ -593,7 +593,7 @@
       </c>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,8 +711,17 @@
       <c r="AM2" t="s">
         <v>0</v>
       </c>
+      <c r="AO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,8 +839,20 @@
       <c r="AM3" t="s">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <f>COUNTIF($B$2:$AM$367, "East")</f>
+        <v>930</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIF($B$2:$AM$367, "Central")</f>
+        <v>1274</v>
+      </c>
+      <c r="AQ3">
+        <f>COUNTIF($B$2:$AM$367, "West")</f>
+        <v>243</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,8 +970,20 @@
       <c r="AM4" t="s">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <f>AO3/SUM($AO$3:$AQ$3)*100</f>
+        <v>38.005721291377199</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AQ4" si="1">AP3/SUM($AO$3:$AQ$3)*100</f>
+        <v>52.063751532488766</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="1"/>
+        <v>9.9305271761340421</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1902,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -3568,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3687,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -3925,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4282,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4639,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4877,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5353,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -5948,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -6067,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -6900,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -7019,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -7257,7 +7290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -7376,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -7614,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -7649,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -7887,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -8125,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -8363,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -8482,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -8720,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -8839,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -8958,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -9077,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -9196,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -9553,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -9672,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -9791,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -9910,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -10029,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -10148,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -10267,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -10386,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -10505,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -10624,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -10743,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -10862,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -10981,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -11100,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -11219,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -11338,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -11457,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -11576,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -11695,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -11814,7 +11847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -11933,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -12052,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -12171,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -12290,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -12409,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -12528,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -12647,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -12766,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -12885,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -13004,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -13123,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -13242,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -13361,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -13480,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -13599,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -13837,7 +13870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -13956,7 +13989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -14194,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -14313,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -14432,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -14551,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -14670,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -14908,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -15027,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -15146,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -15265,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -15384,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -15503,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -15622,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -15741,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -15860,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -15979,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -16098,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -16217,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -16336,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -16455,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -16574,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -16693,7 +16726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -16812,7 +16845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -16931,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -17050,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -17169,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -17288,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -17407,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -17526,7 +17559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -17645,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>8</v>
       </c>
@@ -17764,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
@@ -17883,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -18002,7 +18035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -18121,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
@@ -18240,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
@@ -18359,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -18478,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -18597,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
@@ -18716,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -18835,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
@@ -18954,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
@@ -19073,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
@@ -19192,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -19311,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
@@ -19430,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -19549,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
@@ -19668,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
@@ -19787,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
@@ -19906,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>9</v>
       </c>
@@ -20025,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -20144,7 +20177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
@@ -20263,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>9</v>
       </c>
@@ -20382,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
@@ -20501,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -20620,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -20739,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
@@ -20858,7 +20891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
@@ -20977,7 +21010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
@@ -21096,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -21215,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
@@ -21334,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
@@ -21453,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>9</v>
       </c>
@@ -21572,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -21691,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
@@ -21810,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -21929,7 +21962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -22048,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>9</v>
       </c>
@@ -22167,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -22286,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -22405,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -22524,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -22643,7 +22676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>10</v>
       </c>
@@ -22762,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -22881,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>10</v>
       </c>
@@ -23000,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
@@ -23119,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -23238,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
@@ -23357,7 +23390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -23476,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -23595,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -23714,7 +23747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -23833,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -23952,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -24071,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -24190,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -24309,7 +24342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -24428,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -24547,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -24666,7 +24699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -24785,7 +24818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -24904,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -25023,7 +25056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -25142,7 +25175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -25261,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -25380,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -25499,7 +25532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -25618,7 +25651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -25737,7 +25770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -25856,7 +25889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -25975,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>11</v>
       </c>
@@ -26094,7 +26127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
@@ -26213,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
@@ -26332,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -26451,7 +26484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
@@ -26570,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -26689,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
@@ -26808,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -26927,7 +26960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -27046,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -27165,7 +27198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -27284,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
@@ -27403,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>11</v>
       </c>
@@ -27522,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -27641,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -27760,7 +27793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
@@ -27879,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -27998,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
@@ -28117,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -28236,7 +28269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
@@ -28355,7 +28388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -28474,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -28593,7 +28626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
@@ -28712,7 +28745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -28831,7 +28864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>11</v>
       </c>
@@ -28950,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -29069,7 +29102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>11</v>
       </c>
@@ -29188,7 +29221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -29307,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>11</v>
       </c>
@@ -29426,7 +29459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>11</v>
       </c>
@@ -29545,7 +29578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>12</v>
       </c>
@@ -29664,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>12</v>
       </c>
@@ -29783,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -29902,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>12</v>
       </c>
@@ -30021,7 +30054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>12</v>
       </c>
@@ -30140,7 +30173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -30259,7 +30292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -30378,7 +30411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
@@ -30497,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
@@ -30616,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -30735,7 +30768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>12</v>
       </c>
@@ -30854,7 +30887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -30973,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -31092,7 +31125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>12</v>
       </c>
@@ -31211,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
@@ -31330,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -31449,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>12</v>
       </c>
@@ -31568,7 +31601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>12</v>
       </c>
@@ -31687,7 +31720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -31806,7 +31839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -31925,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
@@ -32044,7 +32077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
@@ -32163,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>12</v>
       </c>
@@ -32282,7 +32315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>12</v>
       </c>
@@ -32401,7 +32434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>12</v>
       </c>
@@ -32520,7 +32553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -32639,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -32758,7 +32791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -32877,7 +32910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>12</v>
       </c>
@@ -32996,7 +33029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>12</v>
       </c>
@@ -33115,7 +33148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>13</v>
       </c>
@@ -33234,7 +33267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
@@ -33353,7 +33386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -33472,7 +33505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>13</v>
       </c>
@@ -33591,7 +33624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>13</v>
       </c>
@@ -33710,7 +33743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -33829,7 +33862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>13</v>
       </c>
@@ -33948,7 +33981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
@@ -34067,7 +34100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>13</v>
       </c>
@@ -34186,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>13</v>
       </c>
@@ -34305,7 +34338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>13</v>
       </c>
@@ -34424,7 +34457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>13</v>
       </c>
@@ -34543,7 +34576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
@@ -34662,7 +34695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>13</v>
       </c>
@@ -34781,7 +34814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -34900,7 +34933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
@@ -35019,7 +35052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
@@ -35138,7 +35171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>13</v>
       </c>
@@ -35257,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>13</v>
       </c>
@@ -35376,7 +35409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>13</v>
       </c>
@@ -35495,7 +35528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
@@ -35614,7 +35647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>13</v>
       </c>
@@ -35733,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>13</v>
       </c>
@@ -35852,7 +35885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>13</v>
       </c>
@@ -35971,7 +36004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
@@ -36090,7 +36123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -36209,7 +36242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
@@ -36328,7 +36361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
@@ -36447,7 +36480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -36566,7 +36599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>13</v>
       </c>
@@ -36685,7 +36718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>13</v>
       </c>
@@ -36804,7 +36837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>14</v>
       </c>
@@ -36923,7 +36956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>14</v>
       </c>
@@ -37042,7 +37075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>14</v>
       </c>
@@ -37161,7 +37194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -37280,7 +37313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>14</v>
       </c>
@@ -37399,7 +37432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>14</v>
       </c>
@@ -37518,7 +37551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>14</v>
       </c>
@@ -37637,7 +37670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>14</v>
       </c>
@@ -37756,7 +37789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>14</v>
       </c>
@@ -37875,7 +37908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>14</v>
       </c>
@@ -37994,7 +38027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>14</v>
       </c>
@@ -38113,7 +38146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>14</v>
       </c>
@@ -38232,7 +38265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>14</v>
       </c>
@@ -38351,7 +38384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>14</v>
       </c>
@@ -38470,7 +38503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>14</v>
       </c>
@@ -38589,7 +38622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>14</v>
       </c>
@@ -38708,7 +38741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>14</v>
       </c>
@@ -38827,7 +38860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>14</v>
       </c>
@@ -38946,7 +38979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>14</v>
       </c>
@@ -39065,7 +39098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>14</v>
       </c>
@@ -39184,7 +39217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>14</v>
       </c>
@@ -39303,7 +39336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>14</v>
       </c>
@@ -39422,7 +39455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>14</v>
       </c>
@@ -39541,7 +39574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>14</v>
       </c>
@@ -39660,7 +39693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>14</v>
       </c>
@@ -39779,7 +39812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>14</v>
       </c>
@@ -39898,7 +39931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>14</v>
       </c>
@@ -40017,7 +40050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>14</v>
       </c>
@@ -40136,7 +40169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>14</v>
       </c>
@@ -40255,7 +40288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>14</v>
       </c>
@@ -40374,7 +40407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>15</v>
       </c>
@@ -40493,7 +40526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>15</v>
       </c>
@@ -40612,7 +40645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>15</v>
       </c>
@@ -40731,7 +40764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>15</v>
       </c>
@@ -40850,7 +40883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>15</v>
       </c>
@@ -40969,7 +41002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>15</v>
       </c>
@@ -41088,7 +41121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>15</v>
       </c>
@@ -41207,7 +41240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>15</v>
       </c>
@@ -41326,7 +41359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>15</v>
       </c>
@@ -41445,7 +41478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>15</v>
       </c>
@@ -41564,7 +41597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>15</v>
       </c>
@@ -41683,7 +41716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>15</v>
       </c>
@@ -41802,7 +41835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>15</v>
       </c>
@@ -41921,7 +41954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>15</v>
       </c>
@@ -42040,7 +42073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>15</v>
       </c>
@@ -42159,7 +42192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>15</v>
       </c>
@@ -42278,7 +42311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>15</v>
       </c>
@@ -42397,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>15</v>
       </c>
@@ -42516,7 +42549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>15</v>
       </c>
@@ -42635,7 +42668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>15</v>
       </c>
@@ -42754,7 +42787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>15</v>
       </c>
@@ -42873,7 +42906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>15</v>
       </c>
@@ -42992,7 +43025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>15</v>
       </c>
@@ -43111,7 +43144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>15</v>
       </c>
@@ -43230,7 +43263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>15</v>
       </c>
@@ -43349,7 +43382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>15</v>
       </c>
@@ -43468,7 +43501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>15</v>
       </c>
@@ -43587,7 +43620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>15</v>
       </c>
@@ -43706,7 +43739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>15</v>
       </c>
@@ -43825,7 +43858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>15</v>
       </c>
@@ -43944,7 +43977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>15</v>
       </c>
